--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,13 +2799,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2814,37 +2814,37 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-XLoader),(Citation: Wandera-RedDrop),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Lookout eSurv),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Microsoft MalLockerB),(Citation: Zscaler-SpyNote),(Citation: FortiGuard-FlexiSpy),(Citation: ESET DEFENSOR ID),(Citation: welivesecurity_ahrat_0523),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: NYTimes-BackDoor),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),</t>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason FakeSpy),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2853,61 +2853,61 @@
     <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: NYTimes-BackDoor),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint-Charger),(Citation: lookout_abstractemu_1021),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: kaspersky_fakecalls_0422),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: Sophos Red Alert 2.0),(Citation: fb_arid_viper),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Cylance Dust Storm),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: Trend Micro Anubis),(Citation: Google Security Zen),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: Trend Micro Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: Cylance Dust Storm),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Exobot),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint-Judy),(Citation: Symantec GoldenCup),(Citation: Trend Micro Anubis),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: TrendMicro-RCSAndroid),(Citation: Google Bread),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: Xiao-ZergHelper),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Lookout eSurv),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Google Triada June 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: trendmicro_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_ahrat_0523),(Citation: Cylance Dust Storm),(Citation: Zimperium FlyTrap),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_brata_0122),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: Zimperium FlyTrap),(Citation: Cylance Dust Storm),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
@@ -2916,25 +2916,25 @@
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: Lookout-Adware),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_ahrat_0523),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Trend Micro FlyTrap),(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Group IB Gustuff Mar 2019),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Cybereason EventBot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_brata_0122),(Citation: trendmicro_tianyspy_0122),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_drinik_1022),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: Tripwire-MazarBOT),(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Wandera-RedDrop),(Citation: Google Security Zen),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Triada June 2016),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Group IB Gustuff Mar 2019),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro FlyTrap),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
@@ -2949,64 +2949,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Google Security Zen),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: Threat Fabric Exobot),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Securelist Asacub),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Google Security Zen),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: threatfabric_sova_0921),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint-Charger),(Citation: lookout_abstractemu_1021),(Citation: NYTimes-BackDoor),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Trend Micro FlyTrap),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: kaspersky_fakecalls_0422),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout eSurv),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: checkpoint_hamas_android_malware),(Citation: Forbes Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: MoustachedBouncer ESET August 2023),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: sophos_android_apt_spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Lookout FrozenCell),(Citation: Microsoft MalLockerB),(Citation: CrowdStrike-Android),(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: CheckPoint SimBad 2019),(Citation: mcafee_brata_0421),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Proofpoint-Droidjack),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: CheckPoint Agent Smith),(Citation: welivesecurity_apt-c-23),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Trend Micro FlyTrap),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Lookout eSurv),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: MoustachedBouncer ESET August 2023),(Citation: Talos GPlayed),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Anubis),(Citation: checkpoint_hamas_android_malware),(Citation: trendmicro_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: welivesecurity_apt-c-23),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: sophos_android_apt_spyware),(Citation: Forbes Cerberus),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: Cybereason FakeSpy),(Citation: Proofpoint-Droidjack),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: CheckPoint-Charger),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: mcafee_brata_0421),(Citation: PaloAlto-WireLurker),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Securelist Asacub),(Citation: Check Point-Joker),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Cybereason FakeSpy),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: PaloAlto-WireLurker),(Citation: Google Bread),(Citation: TrendMicro-Obad),(Citation: Google Security Zen),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason FakeSpy),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: checkpoint_hamas_android_malware),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3015,85 +3015,85 @@
     <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),(Citation: Lookout FrozenCell),(Citation: Tripwire-MazarBOT),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-Xbot),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Cylance Dust Storm),(Citation: Kaspersky-WUC),(Citation: FlexiSpy-Features),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: bitdefender_flubot_0524),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: welivesecurity_ahrat_0523),(Citation: forcepoint_bitter),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Sophos Red Alert 2.0),(Citation: fb_arid_viper),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Google Bread),(Citation: Zscaler-SpyNote),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Kaspersky Triada March 2016),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Tripwire-MazarBOT),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: FireEye-RuMMS),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Google Triada June 2019),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: iOS Universal Links)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: paloalto_yispecter_1015),(Citation: Zimperium FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Meta Adversarial Threat Report 2022),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: CheckPoint SimBad 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: ESET-Twitoor),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Anserver2),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Exobot),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: paloalto_yispecter_1015),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Palo Alto HenBox),(Citation: Xiao-KeyRaider),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Anserver2),(Citation: checkpoint_hamas_android_malware),(Citation: Google Bread),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-DualToy),(Citation: Trend Micro FlyTrap),(Citation: Threat Fabric Exobot),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: forcepoint_bitter),(Citation: PaloAlto-SpyDealer),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason FakeSpy),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Meta Adversarial Threat Report 2022),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: ESET-Twitoor),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender - Triout 2018),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Cerberus),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: welivesec_strongpity),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Xiao-KeyRaider),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: FireEye-RuMMS),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout ViperRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Trend Micro FlyTrap),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: TrendMicro-Anserver2),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: PaloAlto-DualToy),(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: FireEye-RuMMS),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),(Citation: Kaspersky-MobileMalware),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: paloalto_yispecter_1015),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Cerberus),(Citation: Symantec GoldenCup),(Citation: threatfabric_sova_0921),(Citation: cleafy_brata_0122),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: Wandera-RedDrop),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: CheckPoint Cerberus),(Citation: Google Bread),(Citation: Bitdefender - Triout 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-Skygofree),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-MobileMalware),(Citation: FireEye-RuMMS),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,13 +2799,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Check Point-Joker),(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2814,130 +2814,130 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Lookout eSurv),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason FakeSpy),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: Cofense Anubis),(Citation: Zscaler-SuperMarioRun),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Microsoft MalLockerB),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: cyble_drinik_1022),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: Sophos Red Alert 2.0),(Citation: fb_arid_viper),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Meta Adversarial Threat Report 2022),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: Trend Micro Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: Cylance Dust Storm),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Exobot),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint-Judy),(Citation: Symantec GoldenCup),(Citation: Trend Micro Anubis),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: TrendMicro-RCSAndroid),(Citation: Google Bread),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: Xiao-ZergHelper),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Lookout eSurv),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: ThreatFabric Ginp),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: mcafee_brata_0421),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Xiao-ZergHelper),(Citation: Google Triada June 2019),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Judy),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: Zimperium FlyTrap),(Citation: Cylance Dust Storm),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Google Triada June 2019),(Citation: trendmicro_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Gooligan Citation),(Citation: Volexity Insomnia),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Group IB Gustuff Mar 2019),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro FlyTrap),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: PaloAlto-XcodeGhost),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingWhale),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: CheckPoint-Judy),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingBad),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,151 +2949,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Google Security Zen),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: Cybereason EventBot),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: cyble_chameleon_0423),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Trend Micro FlyTrap),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Lookout eSurv),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: MoustachedBouncer ESET August 2023),(Citation: Talos GPlayed),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Anubis),(Citation: checkpoint_hamas_android_malware),(Citation: trendmicro_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: welivesecurity_apt-c-23),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: sophos_android_apt_spyware),(Citation: Forbes Cerberus),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: Cybereason FakeSpy),(Citation: Proofpoint-Droidjack),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: cleafy_brata_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: CyberMerchants-FlexiSpy),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: MoustachedBouncer ESET August 2023),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: Forbes Cerberus),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: CrowdStrike-Android),(Citation: mcafee_brata_0421),(Citation: Securelist Asacub),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Proofpoint-Droidjack),(Citation: Palo Alto HenBox),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: trendmicro_strongpity),(Citation: Microsoft MalLockerB),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: securelist_brata_0819),(Citation: Lookout ViperRAT),(Citation: checkpoint_hamas_android_malware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesecurity_apt-c-23),(Citation: ThreatFabric Ginp),(Citation: Lookout FrozenCell),(Citation: forcepoint_bitter),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: PaloAlto-WireLurker),(Citation: Google Bread),(Citation: TrendMicro-Obad),(Citation: Google Security Zen),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason FakeSpy),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Volexity Insomnia),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-Obad),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-WireLurker),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Microsoft MalLockerB),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Check Point-Joker),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: sophos_android_apt_spyware),(Citation: securelist_brata_0819),(Citation: Leonard TAG 2023),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Meta Adversarial Threat Report 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: bitdefender_flubot_0524),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: welivesecurity_ahrat_0523),(Citation: forcepoint_bitter),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Sophos Red Alert 2.0),(Citation: fb_arid_viper),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Google Bread),(Citation: Zscaler-SpyNote),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Kaspersky Triada March 2016),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Tripwire-MazarBOT),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: FireEye-RuMMS),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: bitdefender_flubot_0524),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: FireEye-RuMMS),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Zscaler-SuperMarioRun),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Meta Adversarial Threat Report 2022),(Citation: Tripwire-MazarBOT),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: threatfabric_sova_0921),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: ThreatFabric Ginp),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
+    <t>(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Meta Adversarial Threat Report 2022),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: ESET-Twitoor),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender - Triout 2018),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Cerberus),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: welivesec_strongpity),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Xiao-KeyRaider),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: FireEye-RuMMS),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout ViperRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Trend Micro FlyTrap),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: TrendMicro-Anserver2),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: PaloAlto-DualToy),(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: FireEye-RuMMS),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: checkpoint_flixonline_0421),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Group IB Gustuff Mar 2019),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Cerberus),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Anserver2),(Citation: Xiao-KeyRaider),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: FireEye-RuMMS),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: TrendMicro-Anserver2),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: FireEye-RuMMS),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: PaloAlto-DualToy),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: checkpoint_hamas_android_malware),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout FrozenCell),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Wandera-RedDrop),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: CheckPoint Cerberus),(Citation: Google Bread),(Citation: Bitdefender - Triout 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-Skygofree),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-MobileMalware),(Citation: FireEye-RuMMS),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: ESET DEFENSOR ID),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-MobileMalware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,13 +2799,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Check Point-Joker),(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2814,37 +2814,37 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: Cofense Anubis),(Citation: Zscaler-SuperMarioRun),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Microsoft MalLockerB),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: cyble_drinik_1022),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-XLoader),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint SimBad 2019),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: checkpoint_flixonline_0421),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2853,91 +2853,91 @@
     <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
+    <t>(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Meta Adversarial Threat Report 2022),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),</t>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: cloudmark_tanglebot_0921),(Citation: CheckPoint-Charger),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: ThreatFabric Ginp),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: mcafee_brata_0421),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Xiao-ZergHelper),(Citation: Google Triada June 2019),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Judy),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: securelist_brata_0819),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: mcafee_brata_0421),(Citation: Kaspersky-Skygofree),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Xiao-ZergHelper),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Google Triada June 2019),(Citation: trendmicro_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Gooligan Citation),(Citation: Volexity Insomnia),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: PaloAlto-XcodeGhost),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingWhale),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: CheckPoint-Judy),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Triada June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: Cylance Dust Storm),(Citation: Zimperium FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: ArsTechnica-HummingBad),(Citation: SWB Exodus March 2019),(Citation: Google Security Zen),(Citation: Lookout-Pegasus),(Citation: Gooligan Citation),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-Xbot),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,64 +2949,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: Cybereason EventBot),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: CheckPoint Cerberus),(Citation: securelist_brata_0819),(Citation: Google Security Zen),(Citation: ESET DEFENSOR ID),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Kaspersky Riltok June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: cleafy_brata_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: CyberMerchants-FlexiSpy),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: cyble_chameleon_0423),(Citation: CheckPoint-Charger),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: CrowdStrike-Android),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: MoustachedBouncer ESET August 2023),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: Forbes Cerberus),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: CrowdStrike-Android),(Citation: mcafee_brata_0421),(Citation: Securelist Asacub),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Proofpoint-Droidjack),(Citation: Palo Alto HenBox),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: trendmicro_strongpity),(Citation: Microsoft MalLockerB),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: securelist_brata_0819),(Citation: Lookout ViperRAT),(Citation: checkpoint_hamas_android_malware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesecurity_apt-c-23),(Citation: ThreatFabric Ginp),(Citation: Lookout FrozenCell),(Citation: forcepoint_bitter),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_apt-c-23),(Citation: Lookout FrozenCell),(Citation: CheckPoint SimBad 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Trend Micro Anubis),(Citation: Threat Fabric Exobot),(Citation: blackberry_mobile_malware_apt_esp),(Citation: trendmicro_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: sophos_android_apt_spyware),(Citation: MoustachedBouncer ESET August 2023),(Citation: lookout_bouldspy_0423),(Citation: Forbes Cerberus),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Proofpoint-Droidjack),(Citation: Lookout-Dendroid),(Citation: securelist_brata_0819),(Citation: CrowdStrike-Android),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Volexity Insomnia),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-Obad),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-WireLurker),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Microsoft MalLockerB),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: TrendMicro-XLoader),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Check Point-Joker),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Bouncing Golf 2019),</t>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: Check Point-Joker),(Citation: CheckPoint-Charger),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: TrendMicro-Obad),(Citation: TrendMicro-XLoader),(Citation: trendmicro_tianyspy_0122),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-BrainTest),(Citation: FortiGuard-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-WireLurker),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: securelist_brata_0819),(Citation: Leonard TAG 2023),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Meta Adversarial Threat Report 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
@@ -3015,85 +3015,85 @@
     <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: bitdefender_flubot_0524),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),(Citation: FireEye-RuMMS),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Zscaler-SuperMarioRun),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Meta Adversarial Threat Report 2022),(Citation: Tripwire-MazarBOT),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: threatfabric_sova_0921),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: ThreatFabric Ginp),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),</t>
+    <t>(Citation: Lookout-StealthMango),(Citation: Threat Fabric Cerberus),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: cyble_drinik_1022),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: bitdefender_flubot_0524),(Citation: Sophos Red Alert 2.0),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: cyble_chameleon_0423),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: FireEye-RuMMS),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-Xbot),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout ViperRAT),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Triada March 2016),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Zscaler-SuperMarioRun),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Zscaler-SpyNote),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: Tripwire-MazarBOT),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: securelist_brata_0819),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: Google Triada June 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),</t>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Meta Adversarial Threat Report 2022),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: SWB Exodus March 2019),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: checkpoint_flixonline_0421),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Group IB Gustuff Mar 2019),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Cerberus),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Anserver2),(Citation: Xiao-KeyRaider),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: FireEye-RuMMS),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Riltok June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: TrendMicro-Anserver2),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: FireEye-RuMMS),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Google Project Zero Insomnia),(Citation: PaloAlto-DualToy),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: checkpoint_hamas_android_malware),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout FrozenCell),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: cyble_drinik_1022),(Citation: FortiGuard-FlexiSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: paloalto_yispecter_1015),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Lookout-Pegasus),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_hamas_android_malware),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-DualToy),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: ESET DEFENSOR ID),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-MobileMalware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: TelephonyManager)</t>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint Cerberus),(Citation: Kaspersky-Skygofree),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Kaspersky-MobileMalware),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Zimperium FlyTrap),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: Volexity Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,73 +2799,73 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: checkpoint_flixonline_0421),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-XLoader),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint SimBad 2019),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: checkpoint_flixonline_0421),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler-SpyNote),(Citation: checkpoint_flixonline_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint SimBad 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: NYTimes-BackDoor),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: cloudmark_tanglebot_0921),(Citation: CheckPoint-Charger),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),</t>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Lookout eSurv),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: forcepoint_bitter),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
@@ -2874,70 +2874,70 @@
     <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: securelist_brata_0819),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: mcafee_brata_0421),(Citation: Kaspersky-Skygofree),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Xiao-ZergHelper),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Gooligan Citation),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: SecureList DVMap June 2017),(Citation: cleafy_brata_0122),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Xiao-ZergHelper),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Triada June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: Cylance Dust Storm),(Citation: Zimperium FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Google Triada June 2019),(Citation: trendmicro_strongpity),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: proofpoint_flubot_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: ArsTechnica-HummingBad),(Citation: SWB Exodus March 2019),(Citation: Google Security Zen),(Citation: Lookout-Pegasus),(Citation: Gooligan Citation),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),</t>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Agent Smith),(Citation: fb_arid_viper),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),</t>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: kaspersky_fakecalls_0422),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-Xbot),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky Triada June 2016),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint Agent Smith),(Citation: checkpoint_flixonline_0421),(Citation: Gooligan Citation),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,76 +2949,76 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: CheckPoint Cerberus),(Citation: securelist_brata_0819),(Citation: Google Security Zen),(Citation: ESET DEFENSOR ID),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Kaspersky Riltok June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: cyble_chameleon_0423),(Citation: CheckPoint-Charger),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: CrowdStrike-Android),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_apt-c-23),(Citation: Lookout FrozenCell),(Citation: CheckPoint SimBad 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Trend Micro Anubis),(Citation: Threat Fabric Exobot),(Citation: blackberry_mobile_malware_apt_esp),(Citation: trendmicro_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: sophos_android_apt_spyware),(Citation: MoustachedBouncer ESET August 2023),(Citation: lookout_bouldspy_0423),(Citation: Forbes Cerberus),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Proofpoint-Droidjack),(Citation: Lookout-Dendroid),(Citation: securelist_brata_0819),(Citation: CrowdStrike-Android),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint-Charger),(Citation: CrowdStrike-Android),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: Proofpoint-Droidjack),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),(Citation: MoustachedBouncer ESET August 2023),(Citation: trendmicro_strongpity),(Citation: welivesecurity_apt-c-23),(Citation: blackberry_mobile_malware_apt_esp),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: Forbes Cerberus),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_hamas_android_malware),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: sophos_android_apt_spyware),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: Check Point-Joker),(Citation: CheckPoint-Charger),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: TrendMicro-Obad),(Citation: TrendMicro-XLoader),(Citation: trendmicro_tianyspy_0122),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-BrainTest),(Citation: FortiGuard-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-WireLurker),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Charger),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Check Point-Joker),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: PaloAlto-WireLurker),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Volexity Insomnia),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Obad),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-BrainTest),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Palo Alto HenBox),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Threat Fabric Cerberus),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: cyble_drinik_1022),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: bitdefender_flubot_0524),(Citation: Sophos Red Alert 2.0),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: cyble_chameleon_0423),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: FireEye-RuMMS),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-Xbot),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout ViperRAT),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Triada March 2016),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Zscaler-SuperMarioRun),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Zscaler-SpyNote),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: Tripwire-MazarBOT),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Tripwire-MazarBOT),(Citation: Zscaler-SuperMarioRun),(Citation: proofpoint_flubot_0421),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3027,73 +3027,73 @@
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: securelist_brata_0819),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: Google Triada June 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Meta Adversarial Threat Report 2022),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: SWB Exodus March 2019),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: cyble_drinik_1022),(Citation: FortiGuard-FlexiSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: paloalto_yispecter_1015),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Lookout-Pegasus),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_hamas_android_malware),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-DualToy),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Lookout eSurv),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Xiao-KeyRaider),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: CheckPoint Cerberus),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: checkpoint_hamas_android_malware),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint Cerberus),(Citation: Kaspersky-Skygofree),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Kaspersky-MobileMalware),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: Zimperium FlyTrap),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: Volexity Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint Cerberus),(Citation: threatfabric_sova_0921),(Citation: Volexity Insomnia),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-MobileMalware),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,103 +2799,103 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: checkpoint_flixonline_0421),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler-SpyNote),(Citation: checkpoint_flixonline_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint SimBad 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: NYTimes-BackDoor),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: Meta Adversarial Threat Report 2022),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Lookout eSurv),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: forcepoint_bitter),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Charger),(Citation: Lookout Dark Caracal Jan 2018),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Gooligan Citation),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: SecureList DVMap June 2017),(Citation: cleafy_brata_0122),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Xiao-ZergHelper),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: Cylance Dust Storm),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist_brata_0819),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: cleafy_brata_0122),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),(Citation: Google Triada June 2019),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Judy),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Palo Alto HenBox),(Citation: SecureList DVMap June 2017),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
@@ -2907,37 +2907,37 @@
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Google Triada June 2019),(Citation: trendmicro_strongpity),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: proofpoint_flubot_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Agent Smith),(Citation: fb_arid_viper),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: kaspersky_fakecalls_0422),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky Triada June 2016),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint Agent Smith),(Citation: checkpoint_flixonline_0421),(Citation: Gooligan Citation),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: Cylance Dust Storm),(Citation: Google Triada June 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Gooligan Citation),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-Xbot),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout-Dendroid),(Citation: Talos Gustuff Apr 2019),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: cyble_drinik_1022),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-XcodeGhost),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: Tripwire-MazarBOT),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,64 +2949,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro FlyTrap),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint-Charger),(Citation: CrowdStrike-Android),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: Proofpoint-Droidjack),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),(Citation: MoustachedBouncer ESET August 2023),(Citation: trendmicro_strongpity),(Citation: welivesecurity_apt-c-23),(Citation: blackberry_mobile_malware_apt_esp),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: Forbes Cerberus),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_hamas_android_malware),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: sophos_android_apt_spyware),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: CrowdStrike-Android),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Charger),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: CrowdStrike-Android),(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Forbes Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist_brata_0819),(Citation: kaspersky_fakecalls_0422),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: CheckPoint SimBad 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: MoustachedBouncer ESET August 2023),(Citation: lookout_bouldspy_0423),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: checkpoint_hamas_android_malware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_apt-c-23),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Proofpoint-Droidjack),(Citation: Trend Micro Anubis),(Citation: trendmicro_strongpity),(Citation: Threat Fabric Exobot),(Citation: CheckPoint Agent Smith),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Microsoft MalLockerB),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Check Point-Joker),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: PaloAlto-WireLurker),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Volexity Insomnia),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Obad),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-BrainTest),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Lookout-BrainTest),(Citation: trendmicro_tianyspy_0122),(Citation: Check Point-Joker),(Citation: WhiteOps TERRACOTTA),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-Obad),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-WireLurker),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Security Zen),(Citation: Palo Alto HenBox),(Citation: SecureList DVMap June 2017),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: CheckPoint-Charger),(Citation: Lookout Dark Caracal Jan 2018),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Palo Alto HenBox),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist_brata_0819),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: sophos_android_apt_spyware),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3015,85 +3015,85 @@
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Tripwire-MazarBOT),(Citation: Zscaler-SuperMarioRun),(Citation: proofpoint_flubot_0421),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Securelist Asacub),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: nccgroup_sharkbot_0322),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky Triada March 2016),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Cylance Dust Storm),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Tripwire-MazarBOT),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: nccgroup_sharkbot_0322),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_sova_1122),(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_sova_1122),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Lookout eSurv),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: Xiao-KeyRaider),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: CheckPoint Cerberus),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: checkpoint_hamas_android_malware),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: cleafy_sova_1122),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Anserver2),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-WUC),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist_brata_0819),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: SecureList DVMap June 2017),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: Xiao-KeyRaider),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Anserver2),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: checkpoint_hamas_android_malware),(Citation: Trend Micro FlyTrap),(Citation: Lookout-EnterpriseApps),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-DualToy),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Talos-WolfRAT),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint Cerberus),(Citation: threatfabric_sova_0921),(Citation: Volexity Insomnia),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-MobileMalware),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-WUC),(Citation: Volexity Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-MobileMalware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Kaspersky-Skygofree),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Symantec GoldenCup),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FireEye-RuMMS),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,145 +2799,145 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: Meta Adversarial Threat Report 2022),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: Zscaler-SpyNote),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: forcepoint_bitter),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Charger),(Citation: Lookout Dark Caracal Jan 2018),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: CyberMerchants-FlexiSpy),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: ThreatFabric Ginp),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: Cylance Dust Storm),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist_brata_0819),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: cleafy_brata_0122),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),(Citation: Google Triada June 2019),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Judy),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Palo Alto HenBox),(Citation: SecureList DVMap June 2017),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Gooligan Citation),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: welivesec_strongpity),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: CheckPoint-Judy),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: PaloAlto-SpyDealer),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: Cylance Dust Storm),(Citation: Google Triada June 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Gooligan Citation),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-Xbot),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout-Dendroid),(Citation: Talos Gustuff Apr 2019),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: cyble_drinik_1022),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-XcodeGhost),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: Tripwire-MazarBOT),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Group IB Gustuff Mar 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: Trend Micro FlyTrap),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: trendmicro_tianyspy_0122),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada June 2016),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: Lookout-BrainTest),(Citation: Wandera-RedDrop),(Citation: checkpoint_flixonline_0421),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingWhale),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Google Triada June 2019),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,151 +2949,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro FlyTrap),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),</t>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: mcafee_brata_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Exobot),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: CrowdStrike-Android),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro FlyTrap),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Charger),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: CrowdStrike-Android),(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Forbes Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist_brata_0819),(Citation: kaspersky_fakecalls_0422),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: CheckPoint SimBad 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: MoustachedBouncer ESET August 2023),(Citation: lookout_bouldspy_0423),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: checkpoint_hamas_android_malware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_apt-c-23),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Proofpoint-Droidjack),(Citation: Trend Micro Anubis),(Citation: trendmicro_strongpity),(Citation: Threat Fabric Exobot),(Citation: CheckPoint Agent Smith),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Pegasus),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint SimBad 2019),(Citation: Lookout ViperRAT),(Citation: Proofpoint-Droidjack),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: CrowdStrike-Android),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: MoustachedBouncer ESET August 2023),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: sophos_android_apt_spyware),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: Forbes Cerberus),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: welivesecurity_apt-c-23),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: trendmicro_strongpity),(Citation: ThreatFabric Ginp),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Lookout-BrainTest),(Citation: trendmicro_tianyspy_0122),(Citation: Check Point-Joker),(Citation: WhiteOps TERRACOTTA),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-Obad),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-WireLurker),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Security Zen),(Citation: Palo Alto HenBox),(Citation: SecureList DVMap June 2017),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: CheckPoint-Charger),(Citation: Lookout Dark Caracal Jan 2018),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: Volexity Insomnia),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-WireLurker),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-Obad),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: FortiGuard-FlexiSpy),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist_brata_0819),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: sophos_android_apt_spyware),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Securelist Asacub),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: nccgroup_sharkbot_0322),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky Triada March 2016),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Cylance Dust Storm),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Tripwire-MazarBOT),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: nccgroup_sharkbot_0322),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Sophos Red Alert 2.0),(Citation: bitdefender_flubot_0524),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Triada March 2016),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Tripwire-MazarBOT),(Citation: Lookout-Pegasus),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: ThreatFabric Ginp),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_sova_1122),(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_sova_1122),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: cleafy_sova_1122),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Anserver2),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-WUC),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist_brata_0819),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Lookout eSurv),(Citation: Lookout Desert Scorpion),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: SecureList DVMap June 2017),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: Xiao-KeyRaider),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Anserver2),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: checkpoint_hamas_android_malware),(Citation: Trend Micro FlyTrap),(Citation: Lookout-EnterpriseApps),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-DualToy),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Talos-WolfRAT),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: fb_arid_viper),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Zimperium FlyTrap),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: CheckPoint SimBad 2019),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Trend Micro Anubis),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Xiao-KeyRaider),(Citation: TrendMicro-Anserver2),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Lookout-Pegasus),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-DualToy),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-WUC),(Citation: Volexity Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-MobileMalware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Kaspersky-Skygofree),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Symantec GoldenCup),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FireEye-RuMMS),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Volexity Insomnia),(Citation: Kaspersky-MobileMalware),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Wandera-RedDrop),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,142 +2799,142 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesec_strongpity),(Citation: Zscaler-SpyNote),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: forcepoint_bitter),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-XLoader),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: forcepoint_bitter),(Citation: cyble_drinik_1022),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Sophos Red Alert 2.0),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: CyberMerchants-FlexiSpy),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: ThreatFabric Ginp),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),</t>
+    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Cofense Anubis),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: Google Project Zero Insomnia),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Gooligan Citation),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: welivesec_strongpity),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: CheckPoint-Judy),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: PaloAlto-SpyDealer),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Gooligan Citation),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: securelist_brata_0819),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: SecureList DVMap June 2017),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Xiao-ZergHelper),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Anubis),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Symantec GoldenCup),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: CheckPoint-Judy),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: cleafy_brata_0122),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_strongpity),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: Google Triada June 2019),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: ArsTechnica-HummingBad),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Group IB Gustuff Mar 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: Trend Micro FlyTrap),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: trendmicro_tianyspy_0122),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada June 2016),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: Lookout-BrainTest),(Citation: Wandera-RedDrop),(Citation: checkpoint_flixonline_0421),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingWhale),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Google Triada June 2019),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: kaspersky_fakecalls_0422),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Dendroid),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-Xbot),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: checkpoint_flixonline_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
@@ -2949,76 +2949,76 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: mcafee_brata_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: securelist_brata_0819),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Exobot),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: mcafee_brata_0421),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro FlyTrap),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Pegasus),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Bleeipng Computer Escobar),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint SimBad 2019),(Citation: Lookout ViperRAT),(Citation: Proofpoint-Droidjack),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: CrowdStrike-Android),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: MoustachedBouncer ESET August 2023),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: sophos_android_apt_spyware),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: Forbes Cerberus),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: welivesecurity_apt-c-23),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: trendmicro_strongpity),(Citation: ThreatFabric Ginp),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: FlexiSpy-Features),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Cofense Anubis),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Proofpoint-Droidjack),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Forbes Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: securelist_brata_0819),(Citation: MoustachedBouncer ESET August 2023),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: sophos_android_apt_spyware),(Citation: Zscaler TikTok Spyware),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: CheckPoint Agent Smith),(Citation: Microsoft MalLockerB),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: blackberry_mobile_malware_apt_esp),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: Volexity Insomnia),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-WireLurker),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-Obad),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: FortiGuard-FlexiSpy),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: PaloAlto-WireLurker),(Citation: Volexity Insomnia),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Sophos Red Alert 2.0),(Citation: bitdefender_flubot_0524),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Triada March 2016),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: forcepoint_bitter),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Tripwire-MazarBOT),(Citation: Lookout-Pegasus),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-Xbot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: ThreatFabric Ginp),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Tripwire-MazarBOT),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Kaspersky Triada March 2016),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Meta Adversarial Threat Report 2022),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler-SpyNote),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: PaloAlto-Xbot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3027,46 +3027,46 @@
     <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links)</t>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: securelist_brata_0819),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: cleafy_sova_1122),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Zimperium FlyTrap),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: CheckPoint SimBad 2019),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Trend Micro Anubis),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: Cybereason EventBot),(Citation: securelist_brata_0819),(Citation: BlackBerry Bahamut),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Xiao-KeyRaider),(Citation: TrendMicro-Anserver2),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Lookout-Pegasus),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-DualToy),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),</t>
+    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_flixonline_0421),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: Zimperium FlyTrap),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Group IB Gustuff Mar 2019),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: cyble_chameleon_0423),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: CheckPoint Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Xiao-KeyRaider),(Citation: FireEye-RuMMS),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: Cofense Anubis),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: checkpoint_hamas_android_malware),(Citation: forcepoint_bitter),(Citation: PaloAlto-DualToy),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
@@ -3075,25 +3075,25 @@
     <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: Volexity Insomnia),(Citation: Kaspersky-MobileMalware),(Citation: Cybereason EventBot),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Wandera-RedDrop),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Volexity Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Kaspersky-MobileMalware),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
+++ b/docs/mobile-attack-v16.1/mobile-attack-v16.1-techniques.xlsx
@@ -2799,13 +2799,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2814,88 +2814,88 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-XLoader),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: forcepoint_bitter),(Citation: cyble_drinik_1022),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-XLoader),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: Zscaler-SpyNote),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-PegasusAndroid),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Cofense Anubis),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: Google Project Zero Insomnia),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: CyberMerchants-FlexiSpy),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Gooligan Citation),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: securelist_brata_0819),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: SecureList DVMap June 2017),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Xiao-ZergHelper),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Anubis),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Symantec GoldenCup),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: CheckPoint-Judy),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: cleafy_brata_0122),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist_brata_0819),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Gooligan Citation),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_drinik_1022),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: Google Triada June 2019),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint-Judy),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Threat Fabric Cerberus),(Citation: Xiao-ZergHelper),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout FrozenCell),(Citation: Google Security Zen),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
@@ -2907,37 +2907,37 @@
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_strongpity),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: Google Triada June 2019),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: ArsTechnica-HummingBad),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: kaspersky_fakecalls_0422),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Dendroid),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-Xbot),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: checkpoint_flixonline_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Adware),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: fb_arid_viper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Gooligan Citation),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-XcodeGhost),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: cleafy_brata_0122),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Trend Micro FlyTrap),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint-Judy),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Google Triada June 2019),(Citation: ArsTechnica-HummingWhale),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,76 +2949,76 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: FlexiSpy-Features),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Cofense Anubis),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Proofpoint-Droidjack),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Forbes Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: securelist_brata_0819),(Citation: MoustachedBouncer ESET August 2023),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: mcafee_brata_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: sophos_android_apt_spyware),(Citation: Zscaler TikTok Spyware),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: CheckPoint Agent Smith),(Citation: Microsoft MalLockerB),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: blackberry_mobile_malware_apt_esp),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: CrowdStrike-Android),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Lookout FrozenCell),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: CrowdStrike-Android),(Citation: SecureList - ViceLeaker 2019),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: trendmicro_strongpity),(Citation: welivesecurity_apt-c-23),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: sophos_android_apt_spyware),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Proofpoint-Droidjack),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: checkpoint_hamas_android_malware),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: MoustachedBouncer ESET August 2023),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Forbes Cerberus),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: blackberry_mobile_malware_apt_esp),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: PaloAlto-WireLurker),(Citation: Volexity Insomnia),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: mcafee_brata_0421),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-Obad),(Citation: Check Point-Joker),(Citation: CheckPoint-Charger),(Citation: Volexity Insomnia),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Securelist Asacub),(Citation: welivesec_strongpity),(Citation: trendmicro_tianyspy_0122),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: cleafy_brata_0122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: securelist_brata_0819),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: cloudmark_tanglebot_0921),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Tripwire-MazarBOT),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: NYTimes-BackDoor),(Citation: Kaspersky Triada March 2016),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Meta Adversarial Threat Report 2022),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler-SpyNote),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: PaloAlto-Xbot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),</t>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist rotexy 2018),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-XLoader),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Cylance Dust Storm),(Citation: forcepoint_bitter),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: FireEye-RuMMS),(Citation: Tripwire-MazarBOT),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: CyberMerchants-FlexiSpy),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: Google Project Zero Insomnia),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3027,73 +3027,73 @@
     <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: securelist_brata_0819),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Cofense Anubis),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: cleafy_sova_1122),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Google Triada June 2019),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_sova_1122),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_flixonline_0421),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: Zimperium FlyTrap),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Group IB Gustuff Mar 2019),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: cyble_chameleon_0423),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: CheckPoint Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Xiao-KeyRaider),(Citation: FireEye-RuMMS),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: Cofense Anubis),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: checkpoint_hamas_android_malware),(Citation: forcepoint_bitter),(Citation: PaloAlto-DualToy),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: kaspersky_fakecalls_0422),(Citation: fb_arid_viper),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: Lookout FrozenCell),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Agent Smith),(Citation: FlexiSpy-Features),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: FortiGuard-FlexiSpy),(Citation: ESET-Twitoor),(Citation: securelist rotexy 2018),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist_brata_0819),(Citation: Xiao-KeyRaider),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Lookout-Pegasus),(Citation: TrendMicro-Anserver2),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: FireEye-RuMMS),(Citation: fb_arid_viper),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout FrozenCell),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-DualToy),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-Anserver2),(Citation: forcepoint_bitter),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: FireEye-RuMMS),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_hamas_android_malware),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SecureList - ViceLeaker 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Volexity Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Kaspersky-MobileMalware),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
+    <t>(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: proofpoint_flubot_0421),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: FireEye-RuMMS),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist rotexy 2018),(Citation: cleafy_brata_0122),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Bitdefender - Triout 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>
